--- a/data/events/data.xlsx
+++ b/data/events/data.xlsx
@@ -4694,48 +4694,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>8月のぼうさいまちカフェは、香川大学から講師をお招きし、防災食について御講演いただきます！ 調理や試食を通じ、防災について考えてみませんか？
-推奨：小学生以上
-リモート（Zoom）でもご参加いただけます。</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>カガワダイガク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>コウシ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>マネ</t>
-    </rPh>
-    <rPh sb="28" eb="31">
-      <t>ボウサイショク</t>
-    </rPh>
-    <rPh sb="35" eb="38">
-      <t>ゴコウエン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>チョウリ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シショク</t>
-    </rPh>
-    <rPh sb="52" eb="53">
-      <t>ツウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ボウサイ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>サンカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>会場参加：申込先着30人程度</t>
     <rPh sb="0" eb="4">
       <t>カイジョウサンカ</t>
@@ -5150,6 +5108,44 @@
   </si>
   <si>
     <t>https://www.city.takamatsu.kagawa.jp/smph/kurashi/shichoushitsu/hatsugen/machikado/index.html</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8月のぼうさいまちカフェは、香川大学から講師をお招きし、防災食について御講演いただきます！ 調理や試食を通じ、防災について考えてみませんか？
+推奨：小学生以上</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>カガワダイガク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウシ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>マネ</t>
+    </rPh>
+    <rPh sb="28" eb="31">
+      <t>ボウサイショク</t>
+    </rPh>
+    <rPh sb="35" eb="38">
+      <t>ゴコウエン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>チョウリ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シショク</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ボウサイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>カンガ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -6106,9 +6102,9 @@
   <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="170" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="M45" sqref="M45"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.3984375" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
@@ -9155,25 +9151,25 @@
         <v>410</v>
       </c>
       <c r="J57" s="19" t="s">
-        <v>411</v>
+        <v>453</v>
       </c>
       <c r="K57" s="32" t="s">
         <v>48</v>
       </c>
       <c r="L57" s="20" t="s">
+        <v>411</v>
+      </c>
+      <c r="M57" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="M57" s="21" t="s">
+      <c r="N57" s="81" t="s">
         <v>413</v>
       </c>
-      <c r="N57" s="81" t="s">
+      <c r="O57" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="O57" s="15" t="s">
+      <c r="P57" s="32" t="s">
         <v>415</v>
-      </c>
-      <c r="P57" s="32" t="s">
-        <v>416</v>
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -9208,7 +9204,7 @@
         <v>371</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H58" s="41">
         <v>34.352667293246498</v>
@@ -9226,7 +9222,7 @@
         <v>374</v>
       </c>
       <c r="M58" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N58" s="43" t="s">
         <v>376</v>
@@ -9258,7 +9254,7 @@
         <v>66</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59" s="14">
         <v>0.39583333333333331</v>
@@ -9267,10 +9263,10 @@
         <v>0.5</v>
       </c>
       <c r="F59" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" s="16" t="s">
         <v>420</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>421</v>
       </c>
       <c r="H59" s="41">
         <v>34.350647546113102</v>
@@ -9279,7 +9275,7 @@
         <v>134.019078995032</v>
       </c>
       <c r="J59" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K59" s="16" t="s">
         <v>48</v>
@@ -9288,16 +9284,16 @@
         <v>30</v>
       </c>
       <c r="M59" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="N59" s="83" t="s">
         <v>140</v>
       </c>
       <c r="O59" s="23" t="s">
+        <v>423</v>
+      </c>
+      <c r="P59" s="32" t="s">
         <v>424</v>
-      </c>
-      <c r="P59" s="32" t="s">
-        <v>425</v>
       </c>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
@@ -9320,7 +9316,7 @@
         <v>245</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>140</v>
@@ -9329,10 +9325,10 @@
         <v>140</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H60" s="70">
         <v>34.343026113819498</v>
@@ -9341,7 +9337,7 @@
         <v>134.04645514484901</v>
       </c>
       <c r="J60" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K60" s="16" t="s">
         <v>140</v>
@@ -9353,13 +9349,13 @@
         <v>140</v>
       </c>
       <c r="N60" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="O60" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="O60" s="85" t="s">
+      <c r="P60" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="P60" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="Q60" s="26"/>
       <c r="R60" s="26"/>
@@ -9382,7 +9378,7 @@
         <v>185</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D61" s="28" t="s">
         <v>140</v>
@@ -9391,10 +9387,10 @@
         <v>140</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G61" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H61" s="70">
         <v>34.343026113819498</v>
@@ -9403,7 +9399,7 @@
         <v>134.04645514484901</v>
       </c>
       <c r="J61" s="19" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K61" s="16" t="s">
         <v>140</v>
@@ -9415,13 +9411,13 @@
         <v>140</v>
       </c>
       <c r="N61" s="35" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O61" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="P61" s="32" t="s">
         <v>430</v>
-      </c>
-      <c r="P61" s="32" t="s">
-        <v>431</v>
       </c>
       <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
@@ -9444,46 +9440,46 @@
         <v>28</v>
       </c>
       <c r="C62" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D62" s="87" t="s">
         <v>435</v>
       </c>
-      <c r="D62" s="87" t="s">
+      <c r="E62" s="88" t="s">
+        <v>435</v>
+      </c>
+      <c r="F62" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="E62" s="88" t="s">
-        <v>436</v>
-      </c>
-      <c r="F62" s="15" t="s">
+      <c r="G62" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="H62" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="I62" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="I62" s="89" t="s">
+      <c r="J62" s="19" t="s">
         <v>440</v>
-      </c>
-      <c r="J62" s="19" t="s">
-        <v>441</v>
       </c>
       <c r="K62" s="16" t="s">
         <v>48</v>
       </c>
       <c r="L62" s="32" t="s">
+        <v>441</v>
+      </c>
+      <c r="M62" s="31" t="s">
         <v>442</v>
       </c>
-      <c r="M62" s="31" t="s">
+      <c r="N62" s="90" t="s">
         <v>443</v>
       </c>
-      <c r="N62" s="90" t="s">
+      <c r="O62" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="O62" s="23" t="s">
+      <c r="P62" s="32" t="s">
         <v>445</v>
-      </c>
-      <c r="P62" s="32" t="s">
-        <v>446</v>
       </c>
       <c r="Q62" s="26"/>
       <c r="R62" s="26"/>
@@ -9506,46 +9502,46 @@
         <v>28</v>
       </c>
       <c r="C63" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="D63" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="D63" s="87" t="s">
+      <c r="E63" s="88" t="s">
+        <v>447</v>
+      </c>
+      <c r="F63" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="E63" s="88" t="s">
-        <v>448</v>
-      </c>
-      <c r="F63" s="15" t="s">
+      <c r="G63" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="I63" s="89" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" s="19" t="s">
         <v>449</v>
-      </c>
-      <c r="G63" s="16" t="s">
-        <v>438</v>
-      </c>
-      <c r="H63" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="I63" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="J63" s="19" t="s">
-        <v>450</v>
       </c>
       <c r="K63" s="16" t="s">
         <v>48</v>
       </c>
       <c r="L63" s="20" t="s">
+        <v>450</v>
+      </c>
+      <c r="M63" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="M63" s="31" t="s">
+      <c r="N63" s="91" t="s">
         <v>452</v>
       </c>
-      <c r="N63" s="91" t="s">
-        <v>453</v>
-      </c>
       <c r="O63" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="P63" s="32" t="s">
         <v>445</v>
-      </c>
-      <c r="P63" s="32" t="s">
-        <v>446</v>
       </c>
       <c r="Q63" s="26"/>
       <c r="R63" s="26"/>
